--- a/Documentation/COMP-P1-worksheet_GD.xlsx
+++ b/Documentation/COMP-P1-worksheet_GD.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cquera\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiaquera/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C8A4D5-AFDC-4F3A-995B-06DF15959F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65658FB1-37BD-3F45-8623-2A6109F021EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Instructions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -506,7 +505,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -530,8 +530,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -819,25 +818,25 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B38" sqref="B1:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="6" width="5.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.109375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="5.88671875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="5.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="5.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="101.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f>1</f>
         <v>1</v>
@@ -870,7 +869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A24" si="0">A1+1</f>
         <v>2</v>
@@ -905,29 +904,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="32">
         <v>0.8</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33">
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34">
         <v>0.2</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="9">
         <f>SUM(D3:J3)</f>
         <v>1</v>
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -936,18 +935,18 @@
         <v>54</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -986,7 +985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1005,7 +1004,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1026,7 +1025,7 @@
         <v>69</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>70</v>
@@ -1040,7 +1039,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1061,7 +1060,7 @@
         <v>69</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>70</v>
@@ -1075,7 +1074,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1096,7 +1095,7 @@
         <v>69</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>70</v>
@@ -1110,7 +1109,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1131,7 +1130,7 @@
         <v>69</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>70</v>
@@ -1145,7 +1144,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1164,7 +1163,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1176,30 +1175,30 @@
         <v>64</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>70</v>
-      </c>
       <c r="G12" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>70</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1211,30 +1210,30 @@
         <v>65</v>
       </c>
       <c r="D13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>70</v>
-      </c>
       <c r="G13" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>70</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K13" s="6"/>
-      <c r="L13" s="38"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1246,30 +1245,30 @@
         <v>67</v>
       </c>
       <c r="D14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>70</v>
-      </c>
       <c r="G14" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>70</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1281,30 +1280,30 @@
         <v>67</v>
       </c>
       <c r="D15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>70</v>
-      </c>
       <c r="G15" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>70</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1316,30 +1315,30 @@
         <v>62</v>
       </c>
       <c r="D16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>70</v>
-      </c>
       <c r="G16" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>70</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1349,30 +1348,30 @@
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>70</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1384,30 +1383,30 @@
         <v>66</v>
       </c>
       <c r="D18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>70</v>
-      </c>
       <c r="G18" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>70</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1419,30 +1418,30 @@
         <v>66</v>
       </c>
       <c r="D19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>70</v>
-      </c>
       <c r="G19" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>70</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1459,7 +1458,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1478,7 +1477,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1497,14 +1496,14 @@
       <c r="K22" s="2"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="L23" s="16"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1518,159 +1517,159 @@
       </c>
       <c r="L24" s="20"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="29" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B27" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B28" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-    </row>
-    <row r="38" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-    </row>
-    <row r="39" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+    </row>
+    <row r="38" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+    </row>
+    <row r="39" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1690,7 +1689,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1702,117 +1701,118 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="102.44140625" customWidth="1"/>
+    <col min="3" max="3" width="102.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="25"/>
     </row>
-    <row r="7" spans="2:3" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8"/>
       <c r="C7" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:3" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
       <c r="C9" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
       <c r="C10" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:3" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:3" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B12" s="18"/>
       <c r="C12" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="25"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
     </row>
-    <row r="20" spans="2:3" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="C20" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:3" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="1" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" s="1" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:3" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:3" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:3" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:3" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:3" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="23" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Documentation/COMP-P1-worksheet_GD.xlsx
+++ b/Documentation/COMP-P1-worksheet_GD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
   <si>
     <t xml:space="preserve">B </t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t xml:space="preserve">MA/AP/AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS</t>
   </si>
   <si>
     <t xml:space="preserve"> -d (60%)</t>
@@ -705,11 +702,11 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.5"/>
@@ -917,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>4</v>
@@ -936,11 +933,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="13" t="s">
         <v>4</v>
       </c>
@@ -954,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>4</v>
@@ -973,10 +970,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>4</v>
@@ -991,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>4</v>
@@ -1010,10 +1007,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>4</v>
@@ -1028,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>4</v>
@@ -1047,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1068,17 +1065,17 @@
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" s="13" t="s">
         <v>4</v>
       </c>
@@ -1086,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>4</v>
@@ -1105,34 +1102,34 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="L13" s="15"/>
     </row>
@@ -1142,16 +1139,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="D14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>4</v>
@@ -1160,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>4</v>
@@ -1169,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L14" s="14"/>
     </row>
@@ -1179,16 +1176,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>4</v>
@@ -1197,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>4</v>
@@ -1206,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L15" s="14"/>
     </row>
@@ -1216,16 +1213,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="D16" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>4</v>
@@ -1234,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>4</v>
@@ -1253,16 +1250,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>4</v>
@@ -1271,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>4</v>
@@ -1290,16 +1287,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="D18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>4</v>
@@ -1308,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>4</v>
@@ -1327,16 +1324,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>4</v>
@@ -1345,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>4</v>
@@ -1381,7 +1378,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="10" t="s">
@@ -1397,7 +1394,7 @@
         <v>24</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>3</v>
@@ -1414,27 +1411,29 @@
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="J22" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="17"/>
@@ -1452,40 +1451,40 @@
         <v>24</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="L24" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="D26" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -1500,7 +1499,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -1663,49 +1662,49 @@
   <sheetData>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="27"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="28"/>
       <c r="C7" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="10"/>
       <c r="C8" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="30"/>
       <c r="C9" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="31"/>
       <c r="C10" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9"/>
       <c r="C11" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="true" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="12"/>
       <c r="C12" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="27"/>
     </row>
@@ -1727,42 +1726,42 @@
     </row>
     <row r="20" s="1" customFormat="true" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
